--- a/fase 2/evidencias proyecto/Documentacion/Cronograma Fase 2 Final.xlsx
+++ b/fase 2/evidencias proyecto/Documentacion/Cronograma Fase 2 Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PersonalData\Captsone002D\fase 2\evidencias proyecto\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC5DBC9-7FF9-4F00-9EE1-63D1A67AC0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B3F59A-EA5C-47AD-9B46-90B62B3E3C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="110">
   <si>
     <t>N 3</t>
   </si>
@@ -349,6 +349,21 @@
   </si>
   <si>
     <t>Conceptualización de Módulo de Análisis</t>
+  </si>
+  <si>
+    <t>Corrección de Bugs</t>
+  </si>
+  <si>
+    <t>Testeo interno</t>
+  </si>
+  <si>
+    <t>Correcciones de Bugs</t>
+  </si>
+  <si>
+    <t>3.5.1</t>
+  </si>
+  <si>
+    <t>3.5.2</t>
   </si>
 </sst>
 </file>
@@ -735,27 +750,27 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,7 +992,7 @@
   <dimension ref="A2:Y59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -990,7 +1005,7 @@
     <col min="8" max="25" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1009,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1021,40 +1036,40 @@
       <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="96" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="83"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85" t="s">
+      <c r="J3" s="97"/>
+      <c r="K3" s="98" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="83"/>
       <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85" t="s">
+      <c r="N3" s="97"/>
+      <c r="O3" s="98" t="s">
         <v>5</v>
       </c>
       <c r="P3" s="83"/>
       <c r="Q3" s="83"/>
       <c r="R3" s="83"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="85" t="s">
+      <c r="S3" s="97"/>
+      <c r="T3" s="98" t="s">
         <v>6</v>
       </c>
       <c r="U3" s="83"/>
       <c r="V3" s="83"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="85" t="s">
+      <c r="W3" s="97"/>
+      <c r="X3" s="98" t="s">
         <v>7</v>
       </c>
       <c r="Y3" s="83"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="83"/>
@@ -1126,12 +1141,12 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="9">
         <f>AVERAGE(F6:F13)</f>
         <v>1</v>
@@ -1166,12 +1181,12 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="91" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="83"/>
@@ -1209,13 +1224,13 @@
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
     </row>
-    <row r="7" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="91" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="83"/>
@@ -1246,13 +1261,13 @@
       <c r="X7" s="24"/>
       <c r="Y7" s="24"/>
     </row>
-    <row r="8" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="91" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="83"/>
@@ -1281,13 +1296,13 @@
       <c r="X8" s="24"/>
       <c r="Y8" s="24"/>
     </row>
-    <row r="9" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="91" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="83"/>
@@ -1318,7 +1333,7 @@
       <c r="X9" s="24"/>
       <c r="Y9" s="24"/>
     </row>
-    <row r="10" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>1.2</v>
       </c>
@@ -1355,12 +1370,12 @@
       <c r="X10" s="24"/>
       <c r="Y10" s="24"/>
     </row>
-    <row r="11" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>1.3</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="91" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="83"/>
@@ -1392,13 +1407,13 @@
       <c r="X11" s="28"/>
       <c r="Y11" s="28"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="91" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="83"/>
@@ -1429,13 +1444,13 @@
       <c r="X12" s="24"/>
       <c r="Y12" s="24"/>
     </row>
-    <row r="13" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="91" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="83"/>
@@ -1470,7 +1485,7 @@
       <c r="A14" s="30">
         <v>2</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="92" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="83"/>
@@ -1508,11 +1523,11 @@
       <c r="X14" s="33"/>
       <c r="Y14" s="33"/>
     </row>
-    <row r="15" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
         <v>2.1</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="87" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="83"/>
@@ -1550,12 +1565,12 @@
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="40"/>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="88" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="83"/>
@@ -1588,13 +1603,13 @@
       <c r="X16" s="44"/>
       <c r="Y16" s="44"/>
     </row>
-    <row r="17" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="89" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="83"/>
@@ -1623,7 +1638,7 @@
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
     </row>
-    <row r="18" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
         <v>32</v>
       </c>
@@ -1658,7 +1673,7 @@
       <c r="X18" s="38"/>
       <c r="Y18" s="38"/>
     </row>
-    <row r="19" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
         <v>34</v>
       </c>
@@ -1693,7 +1708,7 @@
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
     </row>
-    <row r="20" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
         <v>36</v>
       </c>
@@ -1728,7 +1743,7 @@
       <c r="X20" s="38"/>
       <c r="Y20" s="38"/>
     </row>
-    <row r="21" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
         <v>38</v>
       </c>
@@ -1766,7 +1781,7 @@
       <c r="X21" s="44"/>
       <c r="Y21" s="44"/>
     </row>
-    <row r="22" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
         <v>40</v>
       </c>
@@ -1801,7 +1816,7 @@
       <c r="X22" s="38"/>
       <c r="Y22" s="38"/>
     </row>
-    <row r="23" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>42</v>
       </c>
@@ -1836,7 +1851,7 @@
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
         <v>44</v>
       </c>
@@ -1878,7 +1893,7 @@
       <c r="X24" s="45"/>
       <c r="Y24" s="45"/>
     </row>
-    <row r="25" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
         <v>46</v>
       </c>
@@ -1915,7 +1930,7 @@
       <c r="X25" s="38"/>
       <c r="Y25" s="38"/>
     </row>
-    <row r="26" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>48</v>
       </c>
@@ -1950,7 +1965,7 @@
       <c r="X26" s="38"/>
       <c r="Y26" s="38"/>
     </row>
-    <row r="27" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
         <v>50</v>
       </c>
@@ -1987,7 +2002,7 @@
       <c r="X27" s="38"/>
       <c r="Y27" s="38"/>
     </row>
-    <row r="28" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
         <v>52</v>
       </c>
@@ -2024,7 +2039,7 @@
       <c r="X28" s="38"/>
       <c r="Y28" s="38"/>
     </row>
-    <row r="29" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
         <v>54</v>
       </c>
@@ -2063,19 +2078,19 @@
       <c r="X29" s="38"/>
       <c r="Y29" s="38"/>
     </row>
-    <row r="30" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="50">
         <v>3</v>
       </c>
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="90" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="83"/>
       <c r="D30" s="83"/>
       <c r="E30" s="83"/>
       <c r="F30" s="51">
-        <f>AVERAGE(F31,F40,F49)</f>
-        <v>0.79999999999999993</v>
+        <f>AVERAGE(F31,F40,F49,F52)</f>
+        <v>0.6</v>
       </c>
       <c r="G30" s="52"/>
       <c r="H30" s="53"/>
@@ -2105,12 +2120,12 @@
       <c r="X30" s="54"/>
       <c r="Y30" s="53"/>
     </row>
-    <row r="31" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="55">
         <v>3.1</v>
       </c>
       <c r="B31" s="56"/>
-      <c r="C31" s="95" t="s">
+      <c r="C31" s="86" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="83"/>
@@ -2147,7 +2162,7 @@
       <c r="X31" s="61"/>
       <c r="Y31" s="61"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="62" t="s">
         <v>58</v>
       </c>
@@ -2182,13 +2197,13 @@
       <c r="X32" s="68"/>
       <c r="Y32" s="68"/>
     </row>
-    <row r="33" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="62" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="63"/>
       <c r="C33" s="63"/>
-      <c r="D33" s="96" t="s">
+      <c r="D33" s="85" t="s">
         <v>61</v>
       </c>
       <c r="E33" s="83"/>
@@ -2217,7 +2232,7 @@
       <c r="X33" s="68"/>
       <c r="Y33" s="68"/>
     </row>
-    <row r="34" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="62" t="s">
         <v>62</v>
       </c>
@@ -2252,7 +2267,7 @@
       <c r="X34" s="68"/>
       <c r="Y34" s="68"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="62" t="s">
         <v>64</v>
       </c>
@@ -2292,7 +2307,7 @@
       <c r="X35" s="68"/>
       <c r="Y35" s="68"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="62" t="s">
         <v>66</v>
       </c>
@@ -2445,7 +2460,7 @@
         <v>3.2</v>
       </c>
       <c r="B40" s="56"/>
-      <c r="C40" s="95" t="s">
+      <c r="C40" s="86" t="s">
         <v>73</v>
       </c>
       <c r="D40" s="83"/>
@@ -2776,7 +2791,7 @@
         <v>3.4</v>
       </c>
       <c r="B49" s="56"/>
-      <c r="C49" s="95" t="s">
+      <c r="C49" s="86" t="s">
         <v>104</v>
       </c>
       <c r="D49" s="83"/>
@@ -2884,90 +2899,117 @@
       <c r="Y51" s="68"/>
     </row>
     <row r="52" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="75"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="83"/>
+      <c r="A52" s="55">
+        <v>3.5</v>
+      </c>
+      <c r="B52" s="56"/>
+      <c r="C52" s="86" t="s">
+        <v>105</v>
+      </c>
       <c r="D52" s="83"/>
       <c r="E52" s="83"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="77"/>
-      <c r="Q52" s="77"/>
-      <c r="R52" s="77"/>
-      <c r="S52" s="77"/>
-      <c r="T52" s="77"/>
-      <c r="U52" s="78"/>
-      <c r="V52" s="78"/>
-      <c r="W52" s="78"/>
-      <c r="X52" s="78"/>
-      <c r="Y52" s="77"/>
+      <c r="F52" s="70">
+        <f>AVERAGE(F53:F54)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="71"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="72"/>
+      <c r="T52" s="73"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="73"/>
+      <c r="W52" s="72"/>
+      <c r="X52" s="73"/>
+      <c r="Y52" s="73"/>
     </row>
     <row r="53" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="79"/>
-      <c r="B53" s="80"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="77"/>
-      <c r="N53" s="77"/>
-      <c r="O53" s="77"/>
-      <c r="P53" s="77"/>
-      <c r="Q53" s="77"/>
-      <c r="R53" s="77"/>
-      <c r="S53" s="77"/>
-      <c r="T53" s="77"/>
-      <c r="U53" s="78"/>
-      <c r="V53" s="78"/>
-      <c r="W53" s="77"/>
-      <c r="X53" s="77"/>
-      <c r="Y53" s="77"/>
+      <c r="A53" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="63"/>
+      <c r="F53" s="69">
+        <v>0</v>
+      </c>
+      <c r="G53" s="66"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="67"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="68"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="W53" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="X53" s="68"/>
+      <c r="Y53" s="68"/>
     </row>
     <row r="54" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="79"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="77"/>
-      <c r="Q54" s="77"/>
-      <c r="R54" s="77"/>
-      <c r="S54" s="77"/>
-      <c r="T54" s="77"/>
-      <c r="U54" s="77"/>
-      <c r="V54" s="78"/>
-      <c r="W54" s="78"/>
-      <c r="X54" s="77"/>
-      <c r="Y54" s="77"/>
+      <c r="A54" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="63"/>
+      <c r="F54" s="65">
+        <v>0</v>
+      </c>
+      <c r="G54" s="66"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="67"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="68"/>
+      <c r="W54" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="X54" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y54" s="68"/>
     </row>
     <row r="55" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="79"/>
       <c r="B55" s="80"/>
-      <c r="C55" s="97"/>
+      <c r="C55" s="82"/>
       <c r="D55" s="83"/>
       <c r="E55" s="83"/>
       <c r="F55" s="76"/>
@@ -2993,7 +3035,7 @@
     </row>
     <row r="56" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="75"/>
-      <c r="B56" s="98"/>
+      <c r="B56" s="84"/>
       <c r="C56" s="83"/>
       <c r="D56" s="83"/>
       <c r="E56" s="83"/>
@@ -3021,7 +3063,7 @@
     <row r="57" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="79"/>
       <c r="B57" s="80"/>
-      <c r="C57" s="97"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="83"/>
       <c r="E57" s="83"/>
       <c r="F57" s="76"/>
@@ -3048,7 +3090,7 @@
     <row r="58" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="79"/>
       <c r="B58" s="80"/>
-      <c r="C58" s="97"/>
+      <c r="C58" s="82"/>
       <c r="D58" s="83"/>
       <c r="E58" s="83"/>
       <c r="F58" s="76"/>
@@ -3075,7 +3117,7 @@
     <row r="59" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="79"/>
       <c r="B59" s="80"/>
-      <c r="C59" s="97"/>
+      <c r="C59" s="82"/>
       <c r="D59" s="83"/>
       <c r="E59" s="83"/>
       <c r="F59" s="76"/>
@@ -3100,15 +3142,22 @@
       <c r="Y59" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="C57:E57"/>
+  <mergeCells count="29">
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="C49:E49"/>
@@ -3117,21 +3166,12 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C52:E52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fase 2/evidencias proyecto/Documentacion/Cronograma Fase 2 Final.xlsx
+++ b/fase 2/evidencias proyecto/Documentacion/Cronograma Fase 2 Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PersonalData\Captsone002D\fase 2\evidencias proyecto\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BAEA49-CB3D-402F-B3E4-3CFBD451122A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A692A98-0AFB-411C-8B0C-36DDD7572D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -739,28 +739,27 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,8 +980,8 @@
   </sheetPr>
   <dimension ref="A2:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -996,21 +995,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1024,31 +1023,31 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="94" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="81"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83" t="s">
+      <c r="J3" s="95"/>
+      <c r="K3" s="96" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="81"/>
       <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="83" t="s">
+      <c r="N3" s="95"/>
+      <c r="O3" s="96" t="s">
         <v>4</v>
       </c>
       <c r="P3" s="81"/>
       <c r="Q3" s="81"/>
       <c r="R3" s="81"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="83" t="s">
+      <c r="S3" s="95"/>
+      <c r="T3" s="96" t="s">
         <v>5</v>
       </c>
       <c r="U3" s="81"/>
       <c r="V3" s="81"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="83" t="s">
+      <c r="W3" s="95"/>
+      <c r="X3" s="96" t="s">
         <v>6</v>
       </c>
       <c r="Y3" s="81"/>
@@ -1057,7 +1056,7 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="81"/>
@@ -1065,7 +1064,7 @@
       <c r="E4" s="81"/>
       <c r="F4" s="3">
         <f>AVERAGE(F5,F14,F30)</f>
-        <v>0.8666666666666667</v>
+        <v>0.95416666666666661</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -1129,12 +1128,12 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="7">
         <f>AVERAGE(F6:F13)</f>
         <v>1</v>
@@ -1169,12 +1168,12 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="11"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="12.75" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="89" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="81"/>
@@ -1212,13 +1211,13 @@
       <c r="X6" s="18"/>
       <c r="Y6" s="18"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="89" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="81"/>
@@ -1249,13 +1248,13 @@
       <c r="X7" s="22"/>
       <c r="Y7" s="22"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="89" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="81"/>
@@ -1284,13 +1283,13 @@
       <c r="X8" s="22"/>
       <c r="Y8" s="22"/>
     </row>
-    <row r="9" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="89" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="81"/>
@@ -1358,12 +1357,12 @@
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
     </row>
-    <row r="11" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="12.75" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>1.3</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="89" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="81"/>
@@ -1395,13 +1394,13 @@
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="89" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="81"/>
@@ -1432,13 +1431,13 @@
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
     </row>
-    <row r="13" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="89" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="81"/>
@@ -1473,7 +1472,7 @@
       <c r="A14" s="28">
         <v>2</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="90" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="81"/>
@@ -1515,7 +1514,7 @@
       <c r="A15" s="33">
         <v>2.1</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="85" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="81"/>
@@ -1553,12 +1552,12 @@
       <c r="X15" s="36"/>
       <c r="Y15" s="36"/>
     </row>
-    <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="12.75" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="38"/>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="86" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="81"/>
@@ -1591,13 +1590,13 @@
       <c r="X16" s="42"/>
       <c r="Y16" s="42"/>
     </row>
-    <row r="17" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="87" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="81"/>
@@ -1626,7 +1625,7 @@
       <c r="X17" s="36"/>
       <c r="Y17" s="36"/>
     </row>
-    <row r="18" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
         <v>30</v>
       </c>
@@ -1661,7 +1660,7 @@
       <c r="X18" s="36"/>
       <c r="Y18" s="36"/>
     </row>
-    <row r="19" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>32</v>
       </c>
@@ -1696,7 +1695,7 @@
       <c r="X19" s="36"/>
       <c r="Y19" s="36"/>
     </row>
-    <row r="20" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>34</v>
       </c>
@@ -1731,7 +1730,7 @@
       <c r="X20" s="36"/>
       <c r="Y20" s="36"/>
     </row>
-    <row r="21" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="12.75" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>36</v>
       </c>
@@ -1769,7 +1768,7 @@
       <c r="X21" s="42"/>
       <c r="Y21" s="42"/>
     </row>
-    <row r="22" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
         <v>38</v>
       </c>
@@ -1804,7 +1803,7 @@
       <c r="X22" s="36"/>
       <c r="Y22" s="36"/>
     </row>
-    <row r="23" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
         <v>40</v>
       </c>
@@ -1839,7 +1838,7 @@
       <c r="X23" s="36"/>
       <c r="Y23" s="36"/>
     </row>
-    <row r="24" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="12.75" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
         <v>42</v>
       </c>
@@ -1881,7 +1880,7 @@
       <c r="X24" s="43"/>
       <c r="Y24" s="43"/>
     </row>
-    <row r="25" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
         <v>44</v>
       </c>
@@ -1918,7 +1917,7 @@
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
     </row>
-    <row r="26" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
         <v>46</v>
       </c>
@@ -1953,7 +1952,7 @@
       <c r="X26" s="36"/>
       <c r="Y26" s="36"/>
     </row>
-    <row r="27" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
         <v>48</v>
       </c>
@@ -1990,7 +1989,7 @@
       <c r="X27" s="36"/>
       <c r="Y27" s="36"/>
     </row>
-    <row r="28" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
         <v>50</v>
       </c>
@@ -2027,7 +2026,7 @@
       <c r="X28" s="36"/>
       <c r="Y28" s="36"/>
     </row>
-    <row r="29" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
         <v>52</v>
       </c>
@@ -2070,7 +2069,7 @@
       <c r="A30" s="48">
         <v>3</v>
       </c>
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="88" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="81"/>
@@ -2078,7 +2077,7 @@
       <c r="E30" s="81"/>
       <c r="F30" s="49">
         <f>AVERAGE(F31,F40,F49,F52)</f>
-        <v>0.6</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="G30" s="50"/>
       <c r="H30" s="51"/>
@@ -2118,12 +2117,12 @@
       </c>
       <c r="Y30" s="51"/>
     </row>
-    <row r="31" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="12.75" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53">
         <v>3.1</v>
       </c>
       <c r="B31" s="54"/>
-      <c r="C31" s="90" t="s">
+      <c r="C31" s="80" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="81"/>
@@ -2160,7 +2159,7 @@
       <c r="X31" s="59"/>
       <c r="Y31" s="59"/>
     </row>
-    <row r="32" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="60" t="s">
         <v>56</v>
       </c>
@@ -2195,13 +2194,13 @@
       <c r="X32" s="66"/>
       <c r="Y32" s="66"/>
     </row>
-    <row r="33" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="60" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="61"/>
       <c r="C33" s="61"/>
-      <c r="D33" s="89" t="s">
+      <c r="D33" s="84" t="s">
         <v>59</v>
       </c>
       <c r="E33" s="81"/>
@@ -2230,7 +2229,7 @@
       <c r="X33" s="66"/>
       <c r="Y33" s="66"/>
     </row>
-    <row r="34" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="60" t="s">
         <v>60</v>
       </c>
@@ -2265,7 +2264,7 @@
       <c r="X34" s="66"/>
       <c r="Y34" s="66"/>
     </row>
-    <row r="35" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="60" t="s">
         <v>62</v>
       </c>
@@ -2305,7 +2304,7 @@
       <c r="X35" s="66"/>
       <c r="Y35" s="66"/>
     </row>
-    <row r="36" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="60" t="s">
         <v>64</v>
       </c>
@@ -2344,7 +2343,7 @@
       <c r="X36" s="66"/>
       <c r="Y36" s="66"/>
     </row>
-    <row r="37" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="60" t="s">
         <v>66</v>
       </c>
@@ -2381,7 +2380,7 @@
       <c r="X37" s="66"/>
       <c r="Y37" s="66"/>
     </row>
-    <row r="38" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="60" t="s">
         <v>100</v>
       </c>
@@ -2416,7 +2415,7 @@
       <c r="X38" s="66"/>
       <c r="Y38" s="66"/>
     </row>
-    <row r="39" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="60" t="s">
         <v>68</v>
       </c>
@@ -2453,12 +2452,12 @@
       <c r="X39" s="66"/>
       <c r="Y39" s="66"/>
     </row>
-    <row r="40" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="12.75" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A40" s="53">
         <v>3.2</v>
       </c>
       <c r="B40" s="54"/>
-      <c r="C40" s="90" t="s">
+      <c r="C40" s="80" t="s">
         <v>71</v>
       </c>
       <c r="D40" s="81"/>
@@ -2491,7 +2490,7 @@
       <c r="X40" s="71"/>
       <c r="Y40" s="71"/>
     </row>
-    <row r="41" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="60" t="s">
         <v>72</v>
       </c>
@@ -2526,7 +2525,7 @@
       <c r="X41" s="66"/>
       <c r="Y41" s="66"/>
     </row>
-    <row r="42" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="60" t="s">
         <v>74</v>
       </c>
@@ -2563,7 +2562,7 @@
       <c r="X42" s="66"/>
       <c r="Y42" s="66"/>
     </row>
-    <row r="43" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="12.75" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A43" s="53">
         <v>3.3</v>
       </c>
@@ -2575,7 +2574,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="56">
         <f>AVERAGE(F44:F48)</f>
-        <v>0.88000000000000012</v>
+        <v>1</v>
       </c>
       <c r="G43" s="57"/>
       <c r="H43" s="58"/>
@@ -2605,7 +2604,7 @@
       <c r="X43" s="59"/>
       <c r="Y43" s="59"/>
     </row>
-    <row r="44" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="60" t="s">
         <v>77</v>
       </c>
@@ -2640,7 +2639,7 @@
       <c r="X44" s="66"/>
       <c r="Y44" s="66"/>
     </row>
-    <row r="45" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="60" t="s">
         <v>79</v>
       </c>
@@ -2677,7 +2676,7 @@
       <c r="X45" s="66"/>
       <c r="Y45" s="66"/>
     </row>
-    <row r="46" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="60" t="s">
         <v>81</v>
       </c>
@@ -2712,7 +2711,7 @@
       <c r="X46" s="66"/>
       <c r="Y46" s="66"/>
     </row>
-    <row r="47" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="60" t="s">
         <v>101</v>
       </c>
@@ -2723,7 +2722,7 @@
       </c>
       <c r="E47" s="62"/>
       <c r="F47" s="63">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G47" s="64"/>
       <c r="H47" s="65"/>
@@ -2749,7 +2748,7 @@
       <c r="X47" s="66"/>
       <c r="Y47" s="66"/>
     </row>
-    <row r="48" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="60" t="s">
         <v>83</v>
       </c>
@@ -2760,7 +2759,7 @@
       </c>
       <c r="E48" s="62"/>
       <c r="F48" s="63">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G48" s="64"/>
       <c r="H48" s="65"/>
@@ -2784,19 +2783,19 @@
       <c r="X48" s="66"/>
       <c r="Y48" s="66"/>
     </row>
-    <row r="49" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="12.75" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A49" s="53">
         <v>3.4</v>
       </c>
       <c r="B49" s="54"/>
-      <c r="C49" s="90" t="s">
+      <c r="C49" s="80" t="s">
         <v>102</v>
       </c>
       <c r="D49" s="81"/>
       <c r="E49" s="81"/>
       <c r="F49" s="68">
         <f>AVERAGE(F50:F51)</f>
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G49" s="69"/>
       <c r="H49" s="70"/>
@@ -2822,7 +2821,7 @@
       <c r="X49" s="71"/>
       <c r="Y49" s="71"/>
     </row>
-    <row r="50" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="60" t="s">
         <v>86</v>
       </c>
@@ -2833,7 +2832,7 @@
       </c>
       <c r="E50" s="61"/>
       <c r="F50" s="67">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G50" s="64"/>
       <c r="H50" s="65"/>
@@ -2859,7 +2858,7 @@
       <c r="X50" s="66"/>
       <c r="Y50" s="66"/>
     </row>
-    <row r="51" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="60" t="s">
         <v>88</v>
       </c>
@@ -2870,7 +2869,7 @@
       </c>
       <c r="E51" s="61"/>
       <c r="F51" s="63">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G51" s="64"/>
       <c r="H51" s="65"/>
@@ -2896,19 +2895,19 @@
       <c r="X51" s="66"/>
       <c r="Y51" s="66"/>
     </row>
-    <row r="52" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="12.75" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A52" s="53">
         <v>3.5</v>
       </c>
       <c r="B52" s="54"/>
-      <c r="C52" s="90" t="s">
+      <c r="C52" s="80" t="s">
         <v>103</v>
       </c>
       <c r="D52" s="81"/>
       <c r="E52" s="81"/>
       <c r="F52" s="68">
         <f>AVERAGE(F53:F54)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G52" s="69"/>
       <c r="H52" s="70"/>
@@ -2936,7 +2935,7 @@
       </c>
       <c r="Y52" s="71"/>
     </row>
-    <row r="53" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="60" t="s">
         <v>106</v>
       </c>
@@ -2947,7 +2946,7 @@
       </c>
       <c r="E53" s="61"/>
       <c r="F53" s="67">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G53" s="64"/>
       <c r="H53" s="65"/>
@@ -2973,7 +2972,7 @@
       <c r="X53" s="66"/>
       <c r="Y53" s="66"/>
     </row>
-    <row r="54" spans="1:25" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="60" t="s">
         <v>107</v>
       </c>
@@ -2984,7 +2983,7 @@
       </c>
       <c r="E54" s="61"/>
       <c r="F54" s="63">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G54" s="64"/>
       <c r="H54" s="65"/>
@@ -3013,7 +3012,7 @@
     <row r="55" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="77"/>
       <c r="B55" s="78"/>
-      <c r="C55" s="95"/>
+      <c r="C55" s="82"/>
       <c r="D55" s="81"/>
       <c r="E55" s="81"/>
       <c r="F55" s="74"/>
@@ -3039,7 +3038,7 @@
     </row>
     <row r="56" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="73"/>
-      <c r="B56" s="96"/>
+      <c r="B56" s="83"/>
       <c r="C56" s="81"/>
       <c r="D56" s="81"/>
       <c r="E56" s="81"/>
@@ -3067,7 +3066,7 @@
     <row r="57" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="77"/>
       <c r="B57" s="78"/>
-      <c r="C57" s="95"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="81"/>
       <c r="E57" s="81"/>
       <c r="F57" s="74"/>
@@ -3094,7 +3093,7 @@
     <row r="58" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="77"/>
       <c r="B58" s="78"/>
-      <c r="C58" s="95"/>
+      <c r="C58" s="82"/>
       <c r="D58" s="81"/>
       <c r="E58" s="81"/>
       <c r="F58" s="74"/>
@@ -3121,7 +3120,7 @@
     <row r="59" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="77"/>
       <c r="B59" s="78"/>
-      <c r="C59" s="95"/>
+      <c r="C59" s="82"/>
       <c r="D59" s="81"/>
       <c r="E59" s="81"/>
       <c r="F59" s="74"/>
@@ -3147,12 +3146,21 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="C49:E49"/>
@@ -3161,21 +3169,12 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="C57:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
